--- a/SuppXLS/Scen_BAU_Ble_Fix_10p.xlsx
+++ b/SuppXLS/Scen_BAU_Ble_Fix_10p.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88D4D2A-882E-4569-B88B-7FB4B2072742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D398BB-B399-44CF-848A-4D3CB1EA5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="78">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -318,9 +318,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -642,7 +643,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -823,6 +824,56 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="10" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1369,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:Y109"/>
+  <dimension ref="B1:Y160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110:O157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,7 +3220,7 @@
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="72">
-        <f t="shared" ref="H63:H69" si="0">IF(E63&lt;$S$49,D45*(100%-$Q$46),D45*(100%-$Q$49))</f>
+        <f>IF(E63&lt;$S$49,D45*(100%-$Q$46),D45*(100%-$Q$49))</f>
         <v>0.64707138091411587</v>
       </c>
       <c r="I63" s="19"/>
@@ -3202,7 +3253,7 @@
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="72">
-        <f t="shared" si="0"/>
+        <f>IF(E64&lt;$S$49,D46*(100%-$Q$46),D46*(100%-$Q$49))</f>
         <v>0.64754868967965828</v>
       </c>
       <c r="I64" s="19"/>
@@ -3235,7 +3286,7 @@
       </c>
       <c r="G65" s="19"/>
       <c r="H65" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H63:H69" si="0">IF(E65&lt;$S$49,D47*(100%-$Q$46),D47*(100%-$Q$49))</f>
         <v>0.65032482011625925</v>
       </c>
       <c r="I65" s="19"/>
@@ -4673,37 +4724,1498 @@
       </c>
     </row>
     <row r="109" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C109" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="90">
+      <c r="C109" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="106">
         <v>2050</v>
       </c>
-      <c r="F109" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="G109" s="90"/>
-      <c r="H109" s="92">
+      <c r="F109" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" s="106"/>
+      <c r="H109" s="87">
         <f t="shared" si="5"/>
         <v>0.31673758583512707</v>
       </c>
-      <c r="I109" s="90"/>
-      <c r="J109" s="90" t="s">
+      <c r="I109" s="106"/>
+      <c r="J109" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="K109" s="90"/>
-      <c r="L109" s="90"/>
-      <c r="M109" s="90"/>
-      <c r="N109" s="90"/>
-      <c r="O109" s="93" t="s">
+      <c r="K109" s="106"/>
+      <c r="L109" s="106"/>
+      <c r="M109" s="106"/>
+      <c r="N109" s="106"/>
+      <c r="O109" s="88" t="s">
         <v>49</v>
       </c>
       <c r="R109" s="65">
         <v>0.31673758583512707</v>
       </c>
+    </row>
+    <row r="110" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C110" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="95">
+        <v>2019</v>
+      </c>
+      <c r="F110" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" s="95"/>
+      <c r="H110" s="103">
+        <f>+D44-H62</f>
+        <v>6.6022474682462029E-2</v>
+      </c>
+      <c r="I110" s="95"/>
+      <c r="J110" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="K110" s="95"/>
+      <c r="L110" s="95"/>
+      <c r="M110" s="95"/>
+      <c r="N110" s="95"/>
+      <c r="O110" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C111" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="98">
+        <v>2020</v>
+      </c>
+      <c r="F111" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" s="98"/>
+      <c r="H111" s="104">
+        <f t="shared" ref="H111:H117" si="6">+D45-H63</f>
+        <v>6.6866847595195678E-2</v>
+      </c>
+      <c r="I111" s="98"/>
+      <c r="J111" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K111" s="98"/>
+      <c r="L111" s="98"/>
+      <c r="M111" s="98"/>
+      <c r="N111" s="98"/>
+      <c r="O111" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C112" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="98">
+        <v>2025</v>
+      </c>
+      <c r="F112" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" s="98"/>
+      <c r="H112" s="104">
+        <f>+D46-H64</f>
+        <v>6.6916171569988525E-2</v>
+      </c>
+      <c r="I112" s="98"/>
+      <c r="J112" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K112" s="98"/>
+      <c r="L112" s="98"/>
+      <c r="M112" s="98"/>
+      <c r="N112" s="98"/>
+      <c r="O112" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C113" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="98">
+        <v>2030</v>
+      </c>
+      <c r="F113" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" s="98"/>
+      <c r="H113" s="104">
+        <f t="shared" si="6"/>
+        <v>6.7203050415636678E-2</v>
+      </c>
+      <c r="I113" s="98"/>
+      <c r="J113" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K113" s="98"/>
+      <c r="L113" s="98"/>
+      <c r="M113" s="98"/>
+      <c r="N113" s="98"/>
+      <c r="O113" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C114" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="98">
+        <v>2035</v>
+      </c>
+      <c r="F114" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" s="98"/>
+      <c r="H114" s="104">
+        <f t="shared" si="6"/>
+        <v>6.7363701237192708E-2</v>
+      </c>
+      <c r="I114" s="98"/>
+      <c r="J114" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K114" s="98"/>
+      <c r="L114" s="98"/>
+      <c r="M114" s="98"/>
+      <c r="N114" s="98"/>
+      <c r="O114" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C115" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="98">
+        <v>2040</v>
+      </c>
+      <c r="F115" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="98"/>
+      <c r="H115" s="104">
+        <f t="shared" si="6"/>
+        <v>6.7385372143901501E-2</v>
+      </c>
+      <c r="I115" s="98"/>
+      <c r="J115" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K115" s="98"/>
+      <c r="L115" s="98"/>
+      <c r="M115" s="98"/>
+      <c r="N115" s="98"/>
+      <c r="O115" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C116" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="98">
+        <v>2045</v>
+      </c>
+      <c r="F116" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" s="98"/>
+      <c r="H116" s="104">
+        <f t="shared" si="6"/>
+        <v>6.7293660334440175E-2</v>
+      </c>
+      <c r="I116" s="98"/>
+      <c r="J116" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116" s="98"/>
+      <c r="L116" s="98"/>
+      <c r="M116" s="98"/>
+      <c r="N116" s="98"/>
+      <c r="O116" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C117" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="101">
+        <v>2050</v>
+      </c>
+      <c r="F117" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" s="101"/>
+      <c r="H117" s="108">
+        <f t="shared" si="6"/>
+        <v>6.7107626410048637E-2</v>
+      </c>
+      <c r="I117" s="101"/>
+      <c r="J117" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117" s="101"/>
+      <c r="L117" s="101"/>
+      <c r="M117" s="101"/>
+      <c r="N117" s="101"/>
+      <c r="O117" s="102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C118" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="95">
+        <v>2019</v>
+      </c>
+      <c r="F118" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" s="95"/>
+      <c r="H118" s="109">
+        <f>+E44-H70</f>
+        <v>3.856021418019483E-4</v>
+      </c>
+      <c r="I118" s="95"/>
+      <c r="J118" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="K118" s="95"/>
+      <c r="L118" s="95"/>
+      <c r="M118" s="95"/>
+      <c r="N118" s="95"/>
+      <c r="O118" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C119" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="98">
+        <v>2020</v>
+      </c>
+      <c r="F119" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" s="98"/>
+      <c r="H119" s="105">
+        <f t="shared" ref="H119:H125" si="7">+E45-H71</f>
+        <v>4.0993082795561138E-4</v>
+      </c>
+      <c r="I119" s="98"/>
+      <c r="J119" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K119" s="98"/>
+      <c r="L119" s="98"/>
+      <c r="M119" s="98"/>
+      <c r="N119" s="98"/>
+      <c r="O119" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C120" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="98">
+        <v>2025</v>
+      </c>
+      <c r="F120" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" s="98"/>
+      <c r="H120" s="105">
+        <f>+E46-H72</f>
+        <v>3.9667519594648124E-4</v>
+      </c>
+      <c r="I120" s="98"/>
+      <c r="J120" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K120" s="98"/>
+      <c r="L120" s="98"/>
+      <c r="M120" s="98"/>
+      <c r="N120" s="98"/>
+      <c r="O120" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C121" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="98">
+        <v>2030</v>
+      </c>
+      <c r="F121" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="98"/>
+      <c r="H121" s="105">
+        <f t="shared" si="7"/>
+        <v>3.873176346016402E-4</v>
+      </c>
+      <c r="I121" s="98"/>
+      <c r="J121" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K121" s="98"/>
+      <c r="L121" s="98"/>
+      <c r="M121" s="98"/>
+      <c r="N121" s="98"/>
+      <c r="O121" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C122" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="98">
+        <v>2035</v>
+      </c>
+      <c r="F122" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="98"/>
+      <c r="H122" s="105">
+        <f t="shared" si="7"/>
+        <v>3.8039816162562315E-4</v>
+      </c>
+      <c r="I122" s="98"/>
+      <c r="J122" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K122" s="98"/>
+      <c r="L122" s="98"/>
+      <c r="M122" s="98"/>
+      <c r="N122" s="98"/>
+      <c r="O122" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C123" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="98">
+        <v>2040</v>
+      </c>
+      <c r="F123" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" s="98"/>
+      <c r="H123" s="105">
+        <f t="shared" si="7"/>
+        <v>3.7560436375586904E-4</v>
+      </c>
+      <c r="I123" s="98"/>
+      <c r="J123" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K123" s="98"/>
+      <c r="L123" s="98"/>
+      <c r="M123" s="98"/>
+      <c r="N123" s="98"/>
+      <c r="O123" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C124" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="98">
+        <v>2045</v>
+      </c>
+      <c r="F124" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" s="98"/>
+      <c r="H124" s="105">
+        <f t="shared" si="7"/>
+        <v>3.7237492655631515E-4</v>
+      </c>
+      <c r="I124" s="98"/>
+      <c r="J124" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K124" s="98"/>
+      <c r="L124" s="98"/>
+      <c r="M124" s="98"/>
+      <c r="N124" s="98"/>
+      <c r="O124" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C125" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="101">
+        <v>2050</v>
+      </c>
+      <c r="F125" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" s="101"/>
+      <c r="H125" s="110">
+        <f t="shared" si="7"/>
+        <v>3.7043110191395216E-4</v>
+      </c>
+      <c r="I125" s="101"/>
+      <c r="J125" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="K125" s="101"/>
+      <c r="L125" s="101"/>
+      <c r="M125" s="101"/>
+      <c r="N125" s="101"/>
+      <c r="O125" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C126" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="95">
+        <v>2019</v>
+      </c>
+      <c r="F126" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" s="95"/>
+      <c r="H126" s="103">
+        <f>+F44-H78</f>
+        <v>2.2305121817528528E-3</v>
+      </c>
+      <c r="I126" s="95"/>
+      <c r="J126" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="K126" s="95"/>
+      <c r="L126" s="95"/>
+      <c r="M126" s="95"/>
+      <c r="N126" s="95"/>
+      <c r="O126" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C127" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="98">
+        <v>2020</v>
+      </c>
+      <c r="F127" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" s="98"/>
+      <c r="H127" s="104">
+        <f t="shared" ref="H127:H133" si="8">+F45-H79</f>
+        <v>2.0727654987758061E-3</v>
+      </c>
+      <c r="I127" s="98"/>
+      <c r="J127" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K127" s="98"/>
+      <c r="L127" s="98"/>
+      <c r="M127" s="98"/>
+      <c r="N127" s="98"/>
+      <c r="O127" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C128" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="98">
+        <v>2025</v>
+      </c>
+      <c r="F128" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" s="98"/>
+      <c r="H128" s="104">
+        <f t="shared" si="8"/>
+        <v>2.1478539767021618E-3</v>
+      </c>
+      <c r="I128" s="98"/>
+      <c r="J128" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K128" s="98"/>
+      <c r="L128" s="98"/>
+      <c r="M128" s="98"/>
+      <c r="N128" s="98"/>
+      <c r="O128" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C129" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="98">
+        <v>2030</v>
+      </c>
+      <c r="F129" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" s="98"/>
+      <c r="H129" s="104">
+        <f t="shared" si="8"/>
+        <v>2.1444447517062898E-3</v>
+      </c>
+      <c r="I129" s="98"/>
+      <c r="J129" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K129" s="98"/>
+      <c r="L129" s="98"/>
+      <c r="M129" s="98"/>
+      <c r="N129" s="98"/>
+      <c r="O129" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C130" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="98">
+        <v>2035</v>
+      </c>
+      <c r="F130" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" s="98"/>
+      <c r="H130" s="104">
+        <f t="shared" si="8"/>
+        <v>2.0972000594459451E-3</v>
+      </c>
+      <c r="I130" s="98"/>
+      <c r="J130" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K130" s="98"/>
+      <c r="L130" s="98"/>
+      <c r="M130" s="98"/>
+      <c r="N130" s="98"/>
+      <c r="O130" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C131" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D131" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="98">
+        <v>2040</v>
+      </c>
+      <c r="F131" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" s="98"/>
+      <c r="H131" s="104">
+        <f t="shared" si="8"/>
+        <v>2.039497306540447E-3</v>
+      </c>
+      <c r="I131" s="98"/>
+      <c r="J131" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K131" s="98"/>
+      <c r="L131" s="98"/>
+      <c r="M131" s="98"/>
+      <c r="N131" s="98"/>
+      <c r="O131" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C132" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D132" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="98">
+        <v>2045</v>
+      </c>
+      <c r="F132" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" s="98"/>
+      <c r="H132" s="104">
+        <f t="shared" si="8"/>
+        <v>2.0031805659687374E-3</v>
+      </c>
+      <c r="I132" s="98"/>
+      <c r="J132" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K132" s="98"/>
+      <c r="L132" s="98"/>
+      <c r="M132" s="98"/>
+      <c r="N132" s="98"/>
+      <c r="O132" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C133" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="101">
+        <v>2050</v>
+      </c>
+      <c r="F133" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" s="101"/>
+      <c r="H133" s="108">
+        <f t="shared" si="8"/>
+        <v>1.9767208533010561E-3</v>
+      </c>
+      <c r="I133" s="101"/>
+      <c r="J133" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K133" s="101"/>
+      <c r="L133" s="101"/>
+      <c r="M133" s="101"/>
+      <c r="N133" s="101"/>
+      <c r="O133" s="102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C134" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="95">
+        <v>2019</v>
+      </c>
+      <c r="F134" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" s="95"/>
+      <c r="H134" s="103">
+        <f>+G44-H86</f>
+        <v>1.1946657494881201E-4</v>
+      </c>
+      <c r="I134" s="95"/>
+      <c r="J134" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="K134" s="95"/>
+      <c r="L134" s="95"/>
+      <c r="M134" s="95"/>
+      <c r="N134" s="95"/>
+      <c r="O134" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C135" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="98">
+        <v>2020</v>
+      </c>
+      <c r="F135" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G135" s="98"/>
+      <c r="H135" s="104">
+        <f t="shared" ref="H135:H140" si="9">+G45-H87</f>
+        <v>9.2535630032186504E-5</v>
+      </c>
+      <c r="I135" s="98"/>
+      <c r="J135" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K135" s="98"/>
+      <c r="L135" s="98"/>
+      <c r="M135" s="98"/>
+      <c r="N135" s="98"/>
+      <c r="O135" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C136" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D136" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="98">
+        <v>2025</v>
+      </c>
+      <c r="F136" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" s="98"/>
+      <c r="H136" s="104">
+        <f t="shared" si="9"/>
+        <v>9.5362028371448948E-5</v>
+      </c>
+      <c r="I136" s="98"/>
+      <c r="J136" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K136" s="98"/>
+      <c r="L136" s="98"/>
+      <c r="M136" s="98"/>
+      <c r="N136" s="98"/>
+      <c r="O136" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C137" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D137" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="98">
+        <v>2030</v>
+      </c>
+      <c r="F137" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" s="98"/>
+      <c r="H137" s="104">
+        <f t="shared" si="9"/>
+        <v>9.4555417616941969E-5</v>
+      </c>
+      <c r="I137" s="98"/>
+      <c r="J137" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K137" s="98"/>
+      <c r="L137" s="98"/>
+      <c r="M137" s="98"/>
+      <c r="N137" s="98"/>
+      <c r="O137" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C138" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D138" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="98">
+        <v>2035</v>
+      </c>
+      <c r="F138" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" s="98"/>
+      <c r="H138" s="104">
+        <f t="shared" si="9"/>
+        <v>9.1309114051888298E-5</v>
+      </c>
+      <c r="I138" s="98"/>
+      <c r="J138" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K138" s="98"/>
+      <c r="L138" s="98"/>
+      <c r="M138" s="98"/>
+      <c r="N138" s="98"/>
+      <c r="O138" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C139" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D139" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="98">
+        <v>2040</v>
+      </c>
+      <c r="F139" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="98"/>
+      <c r="H139" s="104">
+        <f t="shared" si="9"/>
+        <v>8.7596123085140068E-5</v>
+      </c>
+      <c r="I139" s="98"/>
+      <c r="J139" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K139" s="98"/>
+      <c r="L139" s="98"/>
+      <c r="M139" s="98"/>
+      <c r="N139" s="98"/>
+      <c r="O139" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C140" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D140" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="98">
+        <v>2045</v>
+      </c>
+      <c r="F140" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" s="98"/>
+      <c r="H140" s="104">
+        <f t="shared" si="9"/>
+        <v>8.5397511319100202E-5</v>
+      </c>
+      <c r="I140" s="98"/>
+      <c r="J140" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K140" s="98"/>
+      <c r="L140" s="98"/>
+      <c r="M140" s="98"/>
+      <c r="N140" s="98"/>
+      <c r="O140" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C141" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="101">
+        <v>2050</v>
+      </c>
+      <c r="F141" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" s="101"/>
+      <c r="H141" s="108">
+        <f>+G51-H93</f>
+        <v>8.3974521541194894E-5</v>
+      </c>
+      <c r="I141" s="101"/>
+      <c r="J141" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K141" s="101"/>
+      <c r="L141" s="101"/>
+      <c r="M141" s="101"/>
+      <c r="N141" s="101"/>
+      <c r="O141" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C142" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="95">
+        <v>2019</v>
+      </c>
+      <c r="F142" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" s="95"/>
+      <c r="H142" s="103">
+        <f>+H44-H94</f>
+        <v>3.9857899708616196E-2</v>
+      </c>
+      <c r="I142" s="95"/>
+      <c r="J142" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="K142" s="95"/>
+      <c r="L142" s="95"/>
+      <c r="M142" s="95"/>
+      <c r="N142" s="95"/>
+      <c r="O142" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C143" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="98">
+        <v>2020</v>
+      </c>
+      <c r="F143" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" s="98"/>
+      <c r="H143" s="104">
+        <f t="shared" ref="H143:H149" si="10">+H45-H95</f>
+        <v>4.0165939062874467E-2</v>
+      </c>
+      <c r="I143" s="98"/>
+      <c r="J143" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K143" s="98"/>
+      <c r="L143" s="98"/>
+      <c r="M143" s="98"/>
+      <c r="N143" s="98"/>
+      <c r="O143" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C144" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="98">
+        <v>2025</v>
+      </c>
+      <c r="F144" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" s="98"/>
+      <c r="H144" s="104">
+        <f t="shared" si="10"/>
+        <v>4.0285501102027721E-2</v>
+      </c>
+      <c r="I144" s="98"/>
+      <c r="J144" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K144" s="98"/>
+      <c r="L144" s="98"/>
+      <c r="M144" s="98"/>
+      <c r="N144" s="98"/>
+      <c r="O144" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C145" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="98">
+        <v>2030</v>
+      </c>
+      <c r="F145" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145" s="98"/>
+      <c r="H145" s="104">
+        <f t="shared" si="10"/>
+        <v>4.0069982142060423E-2</v>
+      </c>
+      <c r="I145" s="98"/>
+      <c r="J145" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K145" s="98"/>
+      <c r="L145" s="98"/>
+      <c r="M145" s="98"/>
+      <c r="N145" s="98"/>
+      <c r="O145" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C146" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="98">
+        <v>2035</v>
+      </c>
+      <c r="F146" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="98"/>
+      <c r="H146" s="104">
+        <f t="shared" si="10"/>
+        <v>3.9026660008961989E-2</v>
+      </c>
+      <c r="I146" s="98"/>
+      <c r="J146" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K146" s="98"/>
+      <c r="L146" s="98"/>
+      <c r="M146" s="98"/>
+      <c r="N146" s="98"/>
+      <c r="O146" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C147" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="98">
+        <v>2040</v>
+      </c>
+      <c r="F147" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" s="98"/>
+      <c r="H147" s="104">
+        <f t="shared" si="10"/>
+        <v>3.6910176504274417E-2</v>
+      </c>
+      <c r="I147" s="98"/>
+      <c r="J147" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K147" s="98"/>
+      <c r="L147" s="98"/>
+      <c r="M147" s="98"/>
+      <c r="N147" s="98"/>
+      <c r="O147" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C148" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="98">
+        <v>2045</v>
+      </c>
+      <c r="F148" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" s="98"/>
+      <c r="H148" s="104">
+        <f t="shared" si="10"/>
+        <v>3.3812456560357584E-2</v>
+      </c>
+      <c r="I148" s="98"/>
+      <c r="J148" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K148" s="98"/>
+      <c r="L148" s="98"/>
+      <c r="M148" s="98"/>
+      <c r="N148" s="98"/>
+      <c r="O148" s="99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C149" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="101">
+        <v>2050</v>
+      </c>
+      <c r="F149" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" s="101"/>
+      <c r="H149" s="108">
+        <f t="shared" si="10"/>
+        <v>3.0550979335348449E-2</v>
+      </c>
+      <c r="I149" s="101"/>
+      <c r="J149" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="K149" s="101"/>
+      <c r="L149" s="101"/>
+      <c r="M149" s="101"/>
+      <c r="N149" s="101"/>
+      <c r="O149" s="102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C150" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D150" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="95">
+        <v>2019</v>
+      </c>
+      <c r="F150" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" s="95"/>
+      <c r="H150" s="103">
+        <f>+I44-H102</f>
+        <v>2.4944602281420036E-2</v>
+      </c>
+      <c r="I150" s="95"/>
+      <c r="J150" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="K150" s="95"/>
+      <c r="L150" s="95"/>
+      <c r="M150" s="95"/>
+      <c r="N150" s="95"/>
+      <c r="O150" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C151" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="98">
+        <v>2020</v>
+      </c>
+      <c r="F151" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G151" s="98"/>
+      <c r="H151" s="104">
+        <f t="shared" ref="H151:H157" si="11">+I45-H103</f>
+        <v>2.4969881307596198E-2</v>
+      </c>
+      <c r="I151" s="98"/>
+      <c r="J151" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K151" s="98"/>
+      <c r="L151" s="98"/>
+      <c r="M151" s="98"/>
+      <c r="N151" s="98"/>
+      <c r="O151" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C152" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="98">
+        <v>2025</v>
+      </c>
+      <c r="F152" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" s="98"/>
+      <c r="H152" s="104">
+        <f t="shared" si="11"/>
+        <v>2.4590831019415671E-2</v>
+      </c>
+      <c r="I152" s="98"/>
+      <c r="J152" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K152" s="98"/>
+      <c r="L152" s="98"/>
+      <c r="M152" s="98"/>
+      <c r="N152" s="98"/>
+      <c r="O152" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C153" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="98">
+        <v>2030</v>
+      </c>
+      <c r="F153" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G153" s="98"/>
+      <c r="H153" s="104">
+        <f t="shared" si="11"/>
+        <v>2.3786592897410919E-2</v>
+      </c>
+      <c r="I153" s="98"/>
+      <c r="J153" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K153" s="98"/>
+      <c r="L153" s="98"/>
+      <c r="M153" s="98"/>
+      <c r="N153" s="98"/>
+      <c r="O153" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C154" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D154" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="98">
+        <v>2035</v>
+      </c>
+      <c r="F154" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" s="98"/>
+      <c r="H154" s="104">
+        <f t="shared" si="11"/>
+        <v>2.2743204117925409E-2</v>
+      </c>
+      <c r="I154" s="98"/>
+      <c r="J154" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K154" s="98"/>
+      <c r="L154" s="98"/>
+      <c r="M154" s="98"/>
+      <c r="N154" s="98"/>
+      <c r="O154" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C155" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D155" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="98">
+        <v>2040</v>
+      </c>
+      <c r="F155" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" s="98"/>
+      <c r="H155" s="104">
+        <f t="shared" si="11"/>
+        <v>2.1535996333336804E-2</v>
+      </c>
+      <c r="I155" s="98"/>
+      <c r="J155" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K155" s="98"/>
+      <c r="L155" s="98"/>
+      <c r="M155" s="98"/>
+      <c r="N155" s="98"/>
+      <c r="O155" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C156" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="98">
+        <v>2045</v>
+      </c>
+      <c r="F156" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" s="98"/>
+      <c r="H156" s="104">
+        <f t="shared" si="11"/>
+        <v>2.0405347918105499E-2</v>
+      </c>
+      <c r="I156" s="98"/>
+      <c r="J156" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K156" s="98"/>
+      <c r="L156" s="98"/>
+      <c r="M156" s="98"/>
+      <c r="N156" s="98"/>
+      <c r="O156" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C157" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D157" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="101">
+        <v>2050</v>
+      </c>
+      <c r="F157" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" s="101"/>
+      <c r="H157" s="108">
+        <f t="shared" si="11"/>
+        <v>1.9366743167810452E-2</v>
+      </c>
+      <c r="I157" s="101"/>
+      <c r="J157" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="K157" s="101"/>
+      <c r="L157" s="101"/>
+      <c r="M157" s="101"/>
+      <c r="N157" s="101"/>
+      <c r="O157" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F158" s="111"/>
+      <c r="G158" s="111"/>
+      <c r="H158" s="111"/>
+      <c r="I158" s="111"/>
+      <c r="J158" s="111"/>
+    </row>
+    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F159" s="111"/>
+      <c r="G159" s="111"/>
+      <c r="H159" s="111"/>
+      <c r="I159" s="111"/>
+      <c r="J159" s="111"/>
+    </row>
+    <row r="160" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F160" s="111"/>
+      <c r="G160" s="111"/>
+      <c r="H160" s="111"/>
+      <c r="I160" s="111"/>
+      <c r="J160" s="111"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/SuppXLS/Scen_BAU_Ble_Fix_10p.xlsx
+++ b/SuppXLS/Scen_BAU_Ble_Fix_10p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D398BB-B399-44CF-848A-4D3CB1EA5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC3D0D-574C-4766-8D9E-DFC0E9E37CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>
@@ -321,7 +321,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -643,7 +643,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -836,9 +836,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,26 +851,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1420,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:Y160"/>
+  <dimension ref="B1:Y157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110:O157"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62:R109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,7 +3194,12 @@
         <v>46</v>
       </c>
       <c r="R62" s="65">
-        <v>0.63890037291390744</v>
+        <f>+H62+H110</f>
+        <v>0.70492284759636947</v>
+      </c>
+      <c r="S62" s="65">
+        <f t="shared" ref="S62:S71" si="0">+H110/(H62+H110)</f>
+        <v>9.365914994468405E-2</v>
       </c>
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.25">
@@ -3235,7 +3232,12 @@
         <v>46</v>
       </c>
       <c r="R63" s="65">
-        <v>0.64707138091411587</v>
+        <f t="shared" ref="R63:R109" si="1">+H63+H111</f>
+        <v>0.71393822850931155</v>
+      </c>
+      <c r="S63" s="65">
+        <f t="shared" si="0"/>
+        <v>9.3659149944683995E-2</v>
       </c>
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.25">
@@ -3268,10 +3270,15 @@
         <v>46</v>
       </c>
       <c r="R64" s="65">
-        <v>0.64754868967965828</v>
-      </c>
-    </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.71446486124964681</v>
+      </c>
+      <c r="S64" s="65">
+        <f t="shared" si="0"/>
+        <v>9.3659149944684009E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C65" s="71" t="s">
         <v>35</v>
       </c>
@@ -3286,7 +3293,7 @@
       </c>
       <c r="G65" s="19"/>
       <c r="H65" s="72">
-        <f t="shared" ref="H63:H69" si="0">IF(E65&lt;$S$49,D47*(100%-$Q$46),D47*(100%-$Q$49))</f>
+        <f t="shared" ref="H65:H69" si="2">IF(E65&lt;$S$49,D47*(100%-$Q$46),D47*(100%-$Q$49))</f>
         <v>0.65032482011625925</v>
       </c>
       <c r="I65" s="19"/>
@@ -3301,10 +3308,15 @@
         <v>46</v>
       </c>
       <c r="R65" s="65">
-        <v>0.65032482011625925</v>
-      </c>
-    </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.71752787053189593</v>
+      </c>
+      <c r="S65" s="65">
+        <f t="shared" si="0"/>
+        <v>9.3659149944684036E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C66" s="71" t="s">
         <v>35</v>
       </c>
@@ -3319,7 +3331,7 @@
       </c>
       <c r="G66" s="19"/>
       <c r="H66" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.65187944027090661</v>
       </c>
       <c r="I66" s="19"/>
@@ -3334,10 +3346,15 @@
         <v>46</v>
       </c>
       <c r="R66" s="65">
-        <v>0.65187944027090661</v>
-      </c>
-    </row>
-    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.71924314150809932</v>
+      </c>
+      <c r="S66" s="65">
+        <f t="shared" si="0"/>
+        <v>9.3659149944684092E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C67" s="71" t="s">
         <v>35</v>
       </c>
@@ -3352,7 +3369,7 @@
       </c>
       <c r="G67" s="19"/>
       <c r="H67" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.65208914992575073</v>
       </c>
       <c r="I67" s="19"/>
@@ -3367,10 +3384,15 @@
         <v>46</v>
       </c>
       <c r="R67" s="65">
-        <v>0.65208914992575073</v>
-      </c>
-    </row>
-    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.71947452206965223</v>
+      </c>
+      <c r="S67" s="65">
+        <f t="shared" si="0"/>
+        <v>9.365914994468412E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C68" s="71" t="s">
         <v>35</v>
       </c>
@@ -3385,7 +3407,7 @@
       </c>
       <c r="G68" s="19"/>
       <c r="H68" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.65120165351566928</v>
       </c>
       <c r="I68" s="19"/>
@@ -3400,10 +3422,15 @@
         <v>46</v>
       </c>
       <c r="R68" s="65">
-        <v>0.65120165351566928</v>
-      </c>
-    </row>
-    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.71849531385010945</v>
+      </c>
+      <c r="S68" s="65">
+        <f t="shared" si="0"/>
+        <v>9.3659149944683981E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C69" s="74" t="s">
         <v>35</v>
       </c>
@@ -3418,7 +3445,7 @@
       </c>
       <c r="G69" s="75"/>
       <c r="H69" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64940140073447539</v>
       </c>
       <c r="I69" s="75"/>
@@ -3433,10 +3460,15 @@
         <v>46</v>
       </c>
       <c r="R69" s="65">
-        <v>0.64940140073447539</v>
-      </c>
-    </row>
-    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.71650902714452402</v>
+      </c>
+      <c r="S69" s="65">
+        <f t="shared" si="0"/>
+        <v>9.3659149944684009E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C70" s="79" t="s">
         <v>35</v>
       </c>
@@ -3451,7 +3483,7 @@
       </c>
       <c r="G70" s="80"/>
       <c r="H70" s="82">
-        <f t="shared" ref="H70:H77" si="1">IF(E70&lt;$S$50,E44*(100%-$Q$47),E44*(100%-$Q$50))</f>
+        <f t="shared" ref="H70:H77" si="3">IF(E70&lt;$S$50,E44*(100%-$Q$47),E44*(100%-$Q$50))</f>
         <v>6.3064135476430475E-3</v>
       </c>
       <c r="I70" s="80"/>
@@ -3466,10 +3498,15 @@
         <v>49</v>
       </c>
       <c r="R70" s="65">
-        <v>6.3064135476430475E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.6920156894449958E-3</v>
+      </c>
+      <c r="S70" s="65">
+        <f t="shared" si="0"/>
+        <v>5.7621225008503876E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C71" s="84" t="s">
         <v>35</v>
       </c>
@@ -3484,7 +3521,7 @@
       </c>
       <c r="G71" s="85"/>
       <c r="H71" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7043023021993381E-3</v>
       </c>
       <c r="I71" s="85"/>
@@ -3499,10 +3536,15 @@
         <v>49</v>
       </c>
       <c r="R71" s="65">
-        <v>6.7043023021993381E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7.1142331301549495E-3</v>
+      </c>
+      <c r="S71" s="65">
+        <f t="shared" si="0"/>
+        <v>5.7621225008503904E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C72" s="84" t="s">
         <v>35</v>
       </c>
@@ -3517,7 +3559,7 @@
       </c>
       <c r="G72" s="85"/>
       <c r="H72" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4875102042760728E-3</v>
       </c>
       <c r="I72" s="85"/>
@@ -3532,10 +3574,15 @@
         <v>49</v>
       </c>
       <c r="R72" s="65">
-        <v>6.4875102042760728E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.884185400222554E-3</v>
+      </c>
+      <c r="S72" s="65">
+        <f>+H120/(H72+H120)</f>
+        <v>5.7621225008503897E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C73" s="84" t="s">
         <v>35</v>
       </c>
@@ -3550,7 +3597,7 @@
       </c>
       <c r="G73" s="85"/>
       <c r="H73" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.3344699453132145E-3</v>
       </c>
       <c r="I73" s="85"/>
@@ -3565,10 +3612,15 @@
         <v>49</v>
       </c>
       <c r="R73" s="65">
-        <v>6.3344699453132145E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.7217875799148548E-3</v>
+      </c>
+      <c r="S73" s="65">
+        <f t="shared" ref="S73:S109" si="4">+H121/(H73+H121)</f>
+        <v>5.7621225008503821E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C74" s="84" t="s">
         <v>35</v>
       </c>
@@ -3583,7 +3635,7 @@
       </c>
       <c r="G74" s="85"/>
       <c r="H74" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.2213039293917563E-3</v>
       </c>
       <c r="I74" s="85"/>
@@ -3598,10 +3650,15 @@
         <v>49</v>
       </c>
       <c r="R74" s="65">
-        <v>6.2213039293917563E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.6017020910173795E-3</v>
+      </c>
+      <c r="S74" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503904E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C75" s="84" t="s">
         <v>35</v>
       </c>
@@ -3616,7 +3673,7 @@
       </c>
       <c r="G75" s="85"/>
       <c r="H75" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1429027263040208E-3</v>
       </c>
       <c r="I75" s="85"/>
@@ -3631,10 +3688,15 @@
         <v>49</v>
       </c>
       <c r="R75" s="65">
-        <v>6.1429027263040208E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.5185070900598899E-3</v>
+      </c>
+      <c r="S75" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503918E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C76" s="84" t="s">
         <v>35</v>
       </c>
@@ -3649,7 +3711,7 @@
       </c>
       <c r="G76" s="85"/>
       <c r="H76" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0900861978185894E-3</v>
       </c>
       <c r="I76" s="85"/>
@@ -3664,10 +3726,15 @@
         <v>49</v>
       </c>
       <c r="R76" s="65">
-        <v>6.0900861978185894E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.4624611243749045E-3</v>
+      </c>
+      <c r="S76" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503849E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C77" s="89" t="s">
         <v>35</v>
       </c>
@@ -3682,7 +3749,7 @@
       </c>
       <c r="G77" s="90"/>
       <c r="H77" s="92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0582954976903334E-3</v>
       </c>
       <c r="I77" s="90"/>
@@ -3697,10 +3764,15 @@
         <v>49</v>
       </c>
       <c r="R77" s="65">
-        <v>6.0582954976903334E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.4287265996042856E-3</v>
+      </c>
+      <c r="S77" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503814E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C78" s="66" t="s">
         <v>35</v>
       </c>
@@ -3715,7 +3787,7 @@
       </c>
       <c r="G78" s="67"/>
       <c r="H78" s="69">
-        <f t="shared" ref="H78:H85" si="2">IF(E78&lt;$S$49,F44*(100%-$Q$46),F44*(100%-$Q$49))</f>
+        <f t="shared" ref="H78:H85" si="5">IF(E78&lt;$S$49,F44*(100%-$Q$46),F44*(100%-$Q$49))</f>
         <v>2.1584696295691305E-2</v>
       </c>
       <c r="I78" s="67"/>
@@ -3730,10 +3802,15 @@
         <v>46</v>
       </c>
       <c r="R78" s="65">
-        <v>2.1584696295691298E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.3815208477444158E-2</v>
+      </c>
+      <c r="S78" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684036E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C79" s="71" t="s">
         <v>35</v>
       </c>
@@ -3748,7 +3825,7 @@
       </c>
       <c r="G79" s="19"/>
       <c r="H79" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0058179529019129E-2</v>
       </c>
       <c r="I79" s="19"/>
@@ -3763,10 +3840,15 @@
         <v>46</v>
       </c>
       <c r="R79" s="65">
-        <v>2.0058179529019129E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.2130945027794936E-2</v>
+      </c>
+      <c r="S79" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684064E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C80" s="71" t="s">
         <v>35</v>
       </c>
@@ -3781,7 +3863,7 @@
       </c>
       <c r="G80" s="19"/>
       <c r="H80" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0784811736906217E-2</v>
       </c>
       <c r="I80" s="19"/>
@@ -3796,10 +3878,15 @@
         <v>46</v>
       </c>
       <c r="R80" s="65">
-        <v>2.0784811736906217E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.2932665713608379E-2</v>
+      </c>
+      <c r="S80" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684036E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C81" s="71" t="s">
         <v>35</v>
       </c>
@@ -3814,7 +3901,7 @@
       </c>
       <c r="G81" s="19"/>
       <c r="H81" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0751820620900842E-2</v>
       </c>
       <c r="I81" s="19"/>
@@ -3829,10 +3916,15 @@
         <v>46</v>
       </c>
       <c r="R81" s="65">
-        <v>2.0751820620900842E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.2896265372607132E-2</v>
+      </c>
+      <c r="S81" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684106E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C82" s="71" t="s">
         <v>35</v>
       </c>
@@ -3847,7 +3939,7 @@
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0294633100310138E-2</v>
       </c>
       <c r="I82" s="19"/>
@@ -3862,10 +3954,15 @@
         <v>46</v>
       </c>
       <c r="R82" s="65">
-        <v>2.0294633100310138E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.2391833159756083E-2</v>
+      </c>
+      <c r="S82" s="65">
+        <f t="shared" si="4"/>
+        <v>9.365914994468412E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C83" s="71" t="s">
         <v>35</v>
       </c>
@@ -3880,7 +3977,7 @@
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.9736242786605733E-2</v>
       </c>
       <c r="I83" s="19"/>
@@ -3895,10 +3992,15 @@
         <v>46</v>
       </c>
       <c r="R83" s="65">
-        <v>1.9736242786605733E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.177574009314618E-2</v>
+      </c>
+      <c r="S83" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684078E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C84" s="71" t="s">
         <v>35</v>
       </c>
@@ -3913,7 +4015,7 @@
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.938480520105813E-2</v>
       </c>
       <c r="I84" s="19"/>
@@ -3928,10 +4030,15 @@
         <v>46</v>
       </c>
       <c r="R84" s="65">
-        <v>1.938480520105813E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.1387985767026867E-2</v>
+      </c>
+      <c r="S84" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684036E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C85" s="74" t="s">
         <v>35</v>
       </c>
@@ -3946,7 +4053,7 @@
       </c>
       <c r="G85" s="75"/>
       <c r="H85" s="77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.9128754206728046E-2</v>
       </c>
       <c r="I85" s="75"/>
@@ -3961,10 +4068,15 @@
         <v>46</v>
       </c>
       <c r="R85" s="65">
-        <v>1.9128754206728046E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.1105475060029102E-2</v>
+      </c>
+      <c r="S85" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684092E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C86" s="79" t="s">
         <v>35</v>
       </c>
@@ -3979,7 +4091,7 @@
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="82">
-        <f t="shared" ref="H86:H93" si="3">IF(E86&lt;$S$50,G44*(100%-$Q$47),G44*(100%-$Q$50))</f>
+        <f t="shared" ref="H86:H93" si="6">IF(E86&lt;$S$50,G44*(100%-$Q$47),G44*(100%-$Q$50))</f>
         <v>1.9538419139141145E-3</v>
       </c>
       <c r="I86" s="80"/>
@@ -3994,10 +4106,15 @@
         <v>49</v>
       </c>
       <c r="R86" s="65">
-        <v>1.9538419139141145E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.0733084888629265E-3</v>
+      </c>
+      <c r="S86" s="65">
+        <f t="shared" si="4"/>
+        <v>5.762122500850396E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C87" s="84" t="s">
         <v>35</v>
       </c>
@@ -4012,7 +4129,7 @@
       </c>
       <c r="G87" s="85"/>
       <c r="H87" s="87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5133939561321125E-3</v>
       </c>
       <c r="I87" s="85"/>
@@ -4027,10 +4144,15 @@
         <v>49</v>
       </c>
       <c r="R87" s="65">
-        <v>1.5133939561321125E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.605929586164299E-3</v>
+      </c>
+      <c r="S87" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503821E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C88" s="84" t="s">
         <v>35</v>
       </c>
@@ -4045,7 +4167,7 @@
       </c>
       <c r="G88" s="85"/>
       <c r="H88" s="87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5596188984897087E-3</v>
       </c>
       <c r="I88" s="85"/>
@@ -4060,10 +4182,15 @@
         <v>49</v>
       </c>
       <c r="R88" s="65">
-        <v>1.5596188984897087E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.6549809268611576E-3</v>
+      </c>
+      <c r="S88" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503807E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C89" s="84" t="s">
         <v>35</v>
       </c>
@@ -4078,7 +4205,7 @@
       </c>
       <c r="G89" s="85"/>
       <c r="H89" s="87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5464270086155301E-3</v>
       </c>
       <c r="I89" s="85"/>
@@ -4093,10 +4220,15 @@
         <v>49</v>
       </c>
       <c r="R89" s="65">
-        <v>1.5464270086155301E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.6409824262324721E-3</v>
+      </c>
+      <c r="S89" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503925E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C90" s="84" t="s">
         <v>35</v>
       </c>
@@ -4111,7 +4243,7 @@
       </c>
       <c r="G90" s="85"/>
       <c r="H90" s="87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4933346355111017E-3</v>
       </c>
       <c r="I90" s="85"/>
@@ -4126,10 +4258,15 @@
         <v>49</v>
       </c>
       <c r="R90" s="65">
-        <v>1.4933346355111017E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.58464374956299E-3</v>
+      </c>
+      <c r="S90" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503869E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C91" s="84" t="s">
         <v>35</v>
       </c>
@@ -4144,7 +4281,7 @@
       </c>
       <c r="G91" s="85"/>
       <c r="H91" s="87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4326097224554998E-3</v>
       </c>
       <c r="I91" s="85"/>
@@ -4159,10 +4296,15 @@
         <v>49</v>
       </c>
       <c r="R91" s="65">
-        <v>1.4326097224554998E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.5202058455406398E-3</v>
+      </c>
+      <c r="S91" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503855E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C92" s="84" t="s">
         <v>35</v>
       </c>
@@ -4177,7 +4319,7 @@
       </c>
       <c r="G92" s="85"/>
       <c r="H92" s="87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3966520512595699E-3</v>
       </c>
       <c r="I92" s="85"/>
@@ -4192,10 +4334,15 @@
         <v>49</v>
       </c>
       <c r="R92" s="65">
-        <v>1.3966520512595699E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.4820495625786701E-3</v>
+      </c>
+      <c r="S92" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503814E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C93" s="89" t="s">
         <v>35</v>
       </c>
@@ -4210,7 +4357,7 @@
       </c>
       <c r="G93" s="90"/>
       <c r="H93" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3733794574622312E-3</v>
       </c>
       <c r="I93" s="90"/>
@@ -4225,10 +4372,15 @@
         <v>49</v>
       </c>
       <c r="R93" s="65">
-        <v>1.3733794574622312E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.4573539790034261E-3</v>
+      </c>
+      <c r="S93" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503911E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C94" s="66" t="s">
         <v>35</v>
       </c>
@@ -4258,10 +4410,15 @@
         <v>46</v>
       </c>
       <c r="R94" s="65">
-        <v>0.38570543000510255</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.42556332971371874</v>
+      </c>
+      <c r="S94" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684036E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C95" s="71" t="s">
         <v>35</v>
       </c>
@@ -4276,7 +4433,7 @@
       </c>
       <c r="G95" s="19"/>
       <c r="H95" s="72">
-        <f t="shared" ref="H95:H101" si="4">IF(E95&lt;$S$49,H45*(100%-$Q$46),H45*(100%-$Q$49))</f>
+        <f t="shared" ref="H95:H101" si="7">IF(E95&lt;$S$49,H45*(100%-$Q$46),H45*(100%-$Q$49))</f>
         <v>0.38868633096730226</v>
       </c>
       <c r="I95" s="19"/>
@@ -4291,10 +4448,15 @@
         <v>46</v>
       </c>
       <c r="R95" s="65">
-        <v>0.38868633096730226</v>
-      </c>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.42885227003017673</v>
+      </c>
+      <c r="S95" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684078E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C96" s="71" t="s">
         <v>35</v>
       </c>
@@ -4309,7 +4471,7 @@
       </c>
       <c r="G96" s="19"/>
       <c r="H96" s="72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.38984333442360658</v>
       </c>
       <c r="I96" s="19"/>
@@ -4324,10 +4486,15 @@
         <v>46</v>
       </c>
       <c r="R96" s="65">
-        <v>0.38984333442360658</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.4301288355256343</v>
+      </c>
+      <c r="S96" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684036E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C97" s="71" t="s">
         <v>35</v>
       </c>
@@ -4342,7 +4509,7 @@
       </c>
       <c r="G97" s="19"/>
       <c r="H97" s="72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.38775775455772926</v>
       </c>
       <c r="I97" s="19"/>
@@ -4357,10 +4524,15 @@
         <v>46</v>
       </c>
       <c r="R97" s="65">
-        <v>0.38775775455772926</v>
-      </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.42782773669978968</v>
+      </c>
+      <c r="S97" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684078E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C98" s="71" t="s">
         <v>35</v>
       </c>
@@ -4375,7 +4547,7 @@
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.37766151228399036</v>
       </c>
       <c r="I98" s="19"/>
@@ -4390,10 +4562,15 @@
         <v>46</v>
       </c>
       <c r="R98" s="65">
-        <v>0.37766151228399036</v>
-      </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.41668817229295235</v>
+      </c>
+      <c r="S98" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684106E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C99" s="71" t="s">
         <v>35</v>
       </c>
@@ -4408,7 +4585,7 @@
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.35718027302547173</v>
       </c>
       <c r="I99" s="19"/>
@@ -4423,10 +4600,15 @@
         <v>46</v>
       </c>
       <c r="R99" s="65">
-        <v>0.35718027302547173</v>
-      </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.39409044952974615</v>
+      </c>
+      <c r="S99" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944683995E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C100" s="71" t="s">
         <v>35</v>
       </c>
@@ -4441,7 +4623,7 @@
       </c>
       <c r="G100" s="19"/>
       <c r="H100" s="72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.32720359558540241</v>
       </c>
       <c r="I100" s="19"/>
@@ -4456,10 +4638,15 @@
         <v>46</v>
       </c>
       <c r="R100" s="65">
-        <v>0.32720359558540241</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.36101605214575999</v>
+      </c>
+      <c r="S100" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944683981E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C101" s="74" t="s">
         <v>35</v>
       </c>
@@ -4474,7 +4661,7 @@
       </c>
       <c r="G101" s="75"/>
       <c r="H101" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29564223674009238</v>
       </c>
       <c r="I101" s="75"/>
@@ -4489,10 +4676,15 @@
         <v>46</v>
       </c>
       <c r="R101" s="65">
-        <v>0.29564223674009238</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.32619321607544083</v>
+      </c>
+      <c r="S101" s="65">
+        <f t="shared" si="4"/>
+        <v>9.3659149944684092E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C102" s="79" t="s">
         <v>35</v>
       </c>
@@ -4507,7 +4699,7 @@
       </c>
       <c r="G102" s="80"/>
       <c r="H102" s="82">
-        <f t="shared" ref="H102:H109" si="5">IF(E102&lt;$S$50,I44*(100%-$Q$47),I44*(100%-$Q$50))</f>
+        <f t="shared" ref="H102:H109" si="8">IF(E102&lt;$S$50,I44*(100%-$Q$47),I44*(100%-$Q$50))</f>
         <v>0.40796188795266719</v>
       </c>
       <c r="I102" s="80"/>
@@ -4522,10 +4714,15 @@
         <v>49</v>
       </c>
       <c r="R102" s="65">
-        <v>0.40796188795266719</v>
-      </c>
-    </row>
-    <row r="103" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.43290649023408723</v>
+      </c>
+      <c r="S102" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503897E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C103" s="84" t="s">
         <v>35</v>
       </c>
@@ -4540,7 +4737,7 @@
       </c>
       <c r="G103" s="85"/>
       <c r="H103" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.40837531924846804</v>
       </c>
       <c r="I103" s="85"/>
@@ -4555,10 +4752,15 @@
         <v>49</v>
       </c>
       <c r="R103" s="65">
-        <v>0.40837531924846804</v>
-      </c>
-    </row>
-    <row r="104" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.43334520055606424</v>
+      </c>
+      <c r="S103" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503835E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C104" s="84" t="s">
         <v>35</v>
       </c>
@@ -4573,7 +4775,7 @@
       </c>
       <c r="G104" s="85"/>
       <c r="H104" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.40217605940657786</v>
       </c>
       <c r="I104" s="85"/>
@@ -4588,10 +4790,15 @@
         <v>49</v>
       </c>
       <c r="R104" s="65">
-        <v>0.40217605940657786</v>
-      </c>
-    </row>
-    <row r="105" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.42676689042599353</v>
+      </c>
+      <c r="S104" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503828E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C105" s="84" t="s">
         <v>35</v>
       </c>
@@ -4606,7 +4813,7 @@
       </c>
       <c r="G105" s="85"/>
       <c r="H105" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.38902297326332985</v>
       </c>
       <c r="I105" s="85"/>
@@ -4621,10 +4828,15 @@
         <v>49</v>
       </c>
       <c r="R105" s="65">
-        <v>0.38902297326332985</v>
-      </c>
-    </row>
-    <row r="106" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.41280956616074077</v>
+      </c>
+      <c r="S105" s="65">
+        <f t="shared" si="4"/>
+        <v>5.762122500850389E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C106" s="84" t="s">
         <v>35</v>
       </c>
@@ -4639,7 +4851,7 @@
       </c>
       <c r="G106" s="85"/>
       <c r="H106" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.3719586460174874</v>
       </c>
       <c r="I106" s="85"/>
@@ -4654,10 +4866,15 @@
         <v>49</v>
       </c>
       <c r="R106" s="65">
-        <v>0.3719586460174874</v>
-      </c>
-    </row>
-    <row r="107" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.39470185013541281</v>
+      </c>
+      <c r="S106" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503904E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C107" s="84" t="s">
         <v>35</v>
       </c>
@@ -4672,7 +4889,7 @@
       </c>
       <c r="G107" s="85"/>
       <c r="H107" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.35221510545525692</v>
       </c>
       <c r="I107" s="85"/>
@@ -4687,10 +4904,15 @@
         <v>49</v>
       </c>
       <c r="R107" s="65">
-        <v>0.35221510545525692</v>
-      </c>
-    </row>
-    <row r="108" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.37375110178859372</v>
+      </c>
+      <c r="S107" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503904E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C108" s="84" t="s">
         <v>35</v>
       </c>
@@ -4705,7 +4927,7 @@
       </c>
       <c r="G108" s="85"/>
       <c r="H108" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.33372367164185768</v>
       </c>
       <c r="I108" s="85"/>
@@ -4720,43 +4942,53 @@
         <v>49</v>
       </c>
       <c r="R108" s="65">
-        <v>0.33372367164185768</v>
-      </c>
-    </row>
-    <row r="109" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.35412901955996318</v>
+      </c>
+      <c r="S108" s="65">
+        <f t="shared" si="4"/>
+        <v>5.7621225008503849E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C109" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D109" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="106">
+      <c r="D109" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="85">
         <v>2050</v>
       </c>
-      <c r="F109" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="G109" s="106"/>
+      <c r="F109" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" s="85"/>
       <c r="H109" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.31673758583512707</v>
       </c>
-      <c r="I109" s="106"/>
-      <c r="J109" s="106" t="s">
+      <c r="I109" s="85"/>
+      <c r="J109" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="K109" s="106"/>
-      <c r="L109" s="106"/>
-      <c r="M109" s="106"/>
-      <c r="N109" s="106"/>
+      <c r="K109" s="85"/>
+      <c r="L109" s="85"/>
+      <c r="M109" s="85"/>
+      <c r="N109" s="85"/>
       <c r="O109" s="88" t="s">
         <v>49</v>
       </c>
       <c r="R109" s="65">
-        <v>0.31673758583512707</v>
-      </c>
-    </row>
-    <row r="110" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.33610432900293752</v>
+      </c>
+      <c r="S109" s="65">
+        <f t="shared" si="4"/>
+        <v>5.76212250085038E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C110" s="94" t="s">
         <v>35</v>
       </c>
@@ -4770,7 +5002,7 @@
         <v>30</v>
       </c>
       <c r="G110" s="95"/>
-      <c r="H110" s="103">
+      <c r="H110" s="102">
         <f>+D44-H62</f>
         <v>6.6022474682462029E-2</v>
       </c>
@@ -4786,63 +5018,63 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C111" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D111" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="98">
+      <c r="D111" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="7">
         <v>2020</v>
       </c>
-      <c r="F111" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G111" s="98"/>
-      <c r="H111" s="104">
-        <f t="shared" ref="H111:H117" si="6">+D45-H63</f>
+      <c r="F111" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="103">
+        <f t="shared" ref="H111:H117" si="9">+D45-H63</f>
         <v>6.6866847595195678E-2</v>
       </c>
-      <c r="I111" s="98"/>
-      <c r="J111" s="98" t="s">
+      <c r="I111" s="7"/>
+      <c r="J111" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K111" s="98"/>
-      <c r="L111" s="98"/>
-      <c r="M111" s="98"/>
-      <c r="N111" s="98"/>
-      <c r="O111" s="99" t="s">
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="98" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C112" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D112" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="98">
+      <c r="D112" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="7">
         <v>2025</v>
       </c>
-      <c r="F112" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" s="98"/>
-      <c r="H112" s="104">
+      <c r="F112" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="103">
         <f>+D46-H64</f>
         <v>6.6916171569988525E-2</v>
       </c>
-      <c r="I112" s="98"/>
-      <c r="J112" s="98" t="s">
+      <c r="I112" s="7"/>
+      <c r="J112" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K112" s="98"/>
-      <c r="L112" s="98"/>
-      <c r="M112" s="98"/>
-      <c r="N112" s="98"/>
-      <c r="O112" s="99" t="s">
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4850,29 +5082,29 @@
       <c r="C113" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D113" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" s="98">
+      <c r="D113" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="7">
         <v>2030</v>
       </c>
-      <c r="F113" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" s="98"/>
-      <c r="H113" s="104">
-        <f t="shared" si="6"/>
+      <c r="F113" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="103">
+        <f t="shared" si="9"/>
         <v>6.7203050415636678E-2</v>
       </c>
-      <c r="I113" s="98"/>
-      <c r="J113" s="98" t="s">
+      <c r="I113" s="7"/>
+      <c r="J113" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K113" s="98"/>
-      <c r="L113" s="98"/>
-      <c r="M113" s="98"/>
-      <c r="N113" s="98"/>
-      <c r="O113" s="99" t="s">
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4880,29 +5112,29 @@
       <c r="C114" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D114" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="98">
+      <c r="D114" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="7">
         <v>2035</v>
       </c>
-      <c r="F114" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G114" s="98"/>
-      <c r="H114" s="104">
-        <f t="shared" si="6"/>
+      <c r="F114" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" s="7"/>
+      <c r="H114" s="103">
+        <f t="shared" si="9"/>
         <v>6.7363701237192708E-2</v>
       </c>
-      <c r="I114" s="98"/>
-      <c r="J114" s="98" t="s">
+      <c r="I114" s="7"/>
+      <c r="J114" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K114" s="98"/>
-      <c r="L114" s="98"/>
-      <c r="M114" s="98"/>
-      <c r="N114" s="98"/>
-      <c r="O114" s="99" t="s">
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4910,29 +5142,29 @@
       <c r="C115" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D115" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="98">
+      <c r="D115" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="7">
         <v>2040</v>
       </c>
-      <c r="F115" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" s="98"/>
-      <c r="H115" s="104">
-        <f t="shared" si="6"/>
+      <c r="F115" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="103">
+        <f t="shared" si="9"/>
         <v>6.7385372143901501E-2</v>
       </c>
-      <c r="I115" s="98"/>
-      <c r="J115" s="98" t="s">
+      <c r="I115" s="7"/>
+      <c r="J115" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K115" s="98"/>
-      <c r="L115" s="98"/>
-      <c r="M115" s="98"/>
-      <c r="N115" s="98"/>
-      <c r="O115" s="99" t="s">
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4940,59 +5172,59 @@
       <c r="C116" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D116" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="98">
+      <c r="D116" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="7">
         <v>2045</v>
       </c>
-      <c r="F116" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116" s="98"/>
-      <c r="H116" s="104">
-        <f t="shared" si="6"/>
+      <c r="F116" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="103">
+        <f t="shared" si="9"/>
         <v>6.7293660334440175E-2</v>
       </c>
-      <c r="I116" s="98"/>
-      <c r="J116" s="98" t="s">
+      <c r="I116" s="7"/>
+      <c r="J116" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K116" s="98"/>
-      <c r="L116" s="98"/>
-      <c r="M116" s="98"/>
-      <c r="N116" s="98"/>
-      <c r="O116" s="99" t="s">
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="98" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="117" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C117" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="D117" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="101">
+      <c r="C117" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="100">
         <v>2050</v>
       </c>
-      <c r="F117" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G117" s="101"/>
-      <c r="H117" s="108">
-        <f t="shared" si="6"/>
+      <c r="F117" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" s="100"/>
+      <c r="H117" s="105">
+        <f t="shared" si="9"/>
         <v>6.7107626410048637E-2</v>
       </c>
-      <c r="I117" s="101"/>
-      <c r="J117" s="101" t="s">
+      <c r="I117" s="100"/>
+      <c r="J117" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="K117" s="101"/>
-      <c r="L117" s="101"/>
-      <c r="M117" s="101"/>
-      <c r="N117" s="101"/>
-      <c r="O117" s="102" t="s">
+      <c r="K117" s="100"/>
+      <c r="L117" s="100"/>
+      <c r="M117" s="100"/>
+      <c r="N117" s="100"/>
+      <c r="O117" s="101" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5010,7 +5242,7 @@
         <v>30</v>
       </c>
       <c r="G118" s="95"/>
-      <c r="H118" s="109">
+      <c r="H118" s="106">
         <f>+E44-H70</f>
         <v>3.856021418019483E-4</v>
       </c>
@@ -5030,29 +5262,29 @@
       <c r="C119" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D119" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" s="98">
+      <c r="D119" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="7">
         <v>2020</v>
       </c>
-      <c r="F119" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" s="98"/>
-      <c r="H119" s="105">
-        <f t="shared" ref="H119:H125" si="7">+E45-H71</f>
+      <c r="F119" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="104">
+        <f t="shared" ref="H119:H125" si="10">+E45-H71</f>
         <v>4.0993082795561138E-4</v>
       </c>
-      <c r="I119" s="98"/>
-      <c r="J119" s="98" t="s">
+      <c r="I119" s="7"/>
+      <c r="J119" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K119" s="98"/>
-      <c r="L119" s="98"/>
-      <c r="M119" s="98"/>
-      <c r="N119" s="98"/>
-      <c r="O119" s="99" t="s">
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5060,29 +5292,29 @@
       <c r="C120" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D120" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" s="98">
+      <c r="D120" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="7">
         <v>2025</v>
       </c>
-      <c r="F120" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G120" s="98"/>
-      <c r="H120" s="105">
+      <c r="F120" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="104">
         <f>+E46-H72</f>
         <v>3.9667519594648124E-4</v>
       </c>
-      <c r="I120" s="98"/>
-      <c r="J120" s="98" t="s">
+      <c r="I120" s="7"/>
+      <c r="J120" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K120" s="98"/>
-      <c r="L120" s="98"/>
-      <c r="M120" s="98"/>
-      <c r="N120" s="98"/>
-      <c r="O120" s="99" t="s">
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5090,29 +5322,29 @@
       <c r="C121" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D121" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="98">
+      <c r="D121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="7">
         <v>2030</v>
       </c>
-      <c r="F121" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" s="98"/>
-      <c r="H121" s="105">
-        <f t="shared" si="7"/>
+      <c r="F121" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="104">
+        <f t="shared" si="10"/>
         <v>3.873176346016402E-4</v>
       </c>
-      <c r="I121" s="98"/>
-      <c r="J121" s="98" t="s">
+      <c r="I121" s="7"/>
+      <c r="J121" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K121" s="98"/>
-      <c r="L121" s="98"/>
-      <c r="M121" s="98"/>
-      <c r="N121" s="98"/>
-      <c r="O121" s="99" t="s">
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5120,29 +5352,29 @@
       <c r="C122" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D122" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="98">
+      <c r="D122" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="7">
         <v>2035</v>
       </c>
-      <c r="F122" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G122" s="98"/>
-      <c r="H122" s="105">
-        <f t="shared" si="7"/>
+      <c r="F122" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="7"/>
+      <c r="H122" s="104">
+        <f t="shared" si="10"/>
         <v>3.8039816162562315E-4</v>
       </c>
-      <c r="I122" s="98"/>
-      <c r="J122" s="98" t="s">
+      <c r="I122" s="7"/>
+      <c r="J122" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K122" s="98"/>
-      <c r="L122" s="98"/>
-      <c r="M122" s="98"/>
-      <c r="N122" s="98"/>
-      <c r="O122" s="99" t="s">
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5150,29 +5382,29 @@
       <c r="C123" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D123" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="98">
+      <c r="D123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="7">
         <v>2040</v>
       </c>
-      <c r="F123" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G123" s="98"/>
-      <c r="H123" s="105">
-        <f t="shared" si="7"/>
+      <c r="F123" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="104">
+        <f t="shared" si="10"/>
         <v>3.7560436375586904E-4</v>
       </c>
-      <c r="I123" s="98"/>
-      <c r="J123" s="98" t="s">
+      <c r="I123" s="7"/>
+      <c r="J123" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K123" s="98"/>
-      <c r="L123" s="98"/>
-      <c r="M123" s="98"/>
-      <c r="N123" s="98"/>
-      <c r="O123" s="99" t="s">
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5180,59 +5412,59 @@
       <c r="C124" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D124" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" s="98">
+      <c r="D124" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="7">
         <v>2045</v>
       </c>
-      <c r="F124" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G124" s="98"/>
-      <c r="H124" s="105">
-        <f t="shared" si="7"/>
+      <c r="F124" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="104">
+        <f t="shared" si="10"/>
         <v>3.7237492655631515E-4</v>
       </c>
-      <c r="I124" s="98"/>
-      <c r="J124" s="98" t="s">
+      <c r="I124" s="7"/>
+      <c r="J124" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K124" s="98"/>
-      <c r="L124" s="98"/>
-      <c r="M124" s="98"/>
-      <c r="N124" s="98"/>
-      <c r="O124" s="99" t="s">
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="98" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="125" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C125" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="D125" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" s="101">
+      <c r="C125" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="100">
         <v>2050</v>
       </c>
-      <c r="F125" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G125" s="101"/>
-      <c r="H125" s="110">
-        <f t="shared" si="7"/>
+      <c r="F125" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" s="100"/>
+      <c r="H125" s="107">
+        <f t="shared" si="10"/>
         <v>3.7043110191395216E-4</v>
       </c>
-      <c r="I125" s="101"/>
-      <c r="J125" s="101" t="s">
+      <c r="I125" s="100"/>
+      <c r="J125" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="K125" s="101"/>
-      <c r="L125" s="101"/>
-      <c r="M125" s="101"/>
-      <c r="N125" s="101"/>
-      <c r="O125" s="102" t="s">
+      <c r="K125" s="100"/>
+      <c r="L125" s="100"/>
+      <c r="M125" s="100"/>
+      <c r="N125" s="100"/>
+      <c r="O125" s="101" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5250,7 +5482,7 @@
         <v>30</v>
       </c>
       <c r="G126" s="95"/>
-      <c r="H126" s="103">
+      <c r="H126" s="102">
         <f>+F44-H78</f>
         <v>2.2305121817528528E-3</v>
       </c>
@@ -5270,29 +5502,29 @@
       <c r="C127" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="98">
+      <c r="D127" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="7">
         <v>2020</v>
       </c>
-      <c r="F127" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G127" s="98"/>
-      <c r="H127" s="104">
-        <f t="shared" ref="H127:H133" si="8">+F45-H79</f>
+      <c r="F127" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" s="7"/>
+      <c r="H127" s="103">
+        <f t="shared" ref="H127:H133" si="11">+F45-H79</f>
         <v>2.0727654987758061E-3</v>
       </c>
-      <c r="I127" s="98"/>
-      <c r="J127" s="98" t="s">
+      <c r="I127" s="7"/>
+      <c r="J127" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K127" s="98"/>
-      <c r="L127" s="98"/>
-      <c r="M127" s="98"/>
-      <c r="N127" s="98"/>
-      <c r="O127" s="99" t="s">
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5300,29 +5532,29 @@
       <c r="C128" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D128" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="98">
+      <c r="D128" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="7">
         <v>2025</v>
       </c>
-      <c r="F128" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G128" s="98"/>
-      <c r="H128" s="104">
-        <f t="shared" si="8"/>
+      <c r="F128" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" s="7"/>
+      <c r="H128" s="103">
+        <f t="shared" si="11"/>
         <v>2.1478539767021618E-3</v>
       </c>
-      <c r="I128" s="98"/>
-      <c r="J128" s="98" t="s">
+      <c r="I128" s="7"/>
+      <c r="J128" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K128" s="98"/>
-      <c r="L128" s="98"/>
-      <c r="M128" s="98"/>
-      <c r="N128" s="98"/>
-      <c r="O128" s="99" t="s">
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5330,29 +5562,29 @@
       <c r="C129" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D129" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" s="98">
+      <c r="D129" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="7">
         <v>2030</v>
       </c>
-      <c r="F129" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G129" s="98"/>
-      <c r="H129" s="104">
-        <f t="shared" si="8"/>
+      <c r="F129" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" s="7"/>
+      <c r="H129" s="103">
+        <f t="shared" si="11"/>
         <v>2.1444447517062898E-3</v>
       </c>
-      <c r="I129" s="98"/>
-      <c r="J129" s="98" t="s">
+      <c r="I129" s="7"/>
+      <c r="J129" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K129" s="98"/>
-      <c r="L129" s="98"/>
-      <c r="M129" s="98"/>
-      <c r="N129" s="98"/>
-      <c r="O129" s="99" t="s">
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5360,29 +5592,29 @@
       <c r="C130" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D130" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130" s="98">
+      <c r="D130" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="7">
         <v>2035</v>
       </c>
-      <c r="F130" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G130" s="98"/>
-      <c r="H130" s="104">
-        <f t="shared" si="8"/>
+      <c r="F130" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" s="7"/>
+      <c r="H130" s="103">
+        <f t="shared" si="11"/>
         <v>2.0972000594459451E-3</v>
       </c>
-      <c r="I130" s="98"/>
-      <c r="J130" s="98" t="s">
+      <c r="I130" s="7"/>
+      <c r="J130" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K130" s="98"/>
-      <c r="L130" s="98"/>
-      <c r="M130" s="98"/>
-      <c r="N130" s="98"/>
-      <c r="O130" s="99" t="s">
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5390,29 +5622,29 @@
       <c r="C131" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D131" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="98">
+      <c r="D131" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="7">
         <v>2040</v>
       </c>
-      <c r="F131" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G131" s="98"/>
-      <c r="H131" s="104">
-        <f t="shared" si="8"/>
+      <c r="F131" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" s="7"/>
+      <c r="H131" s="103">
+        <f t="shared" si="11"/>
         <v>2.039497306540447E-3</v>
       </c>
-      <c r="I131" s="98"/>
-      <c r="J131" s="98" t="s">
+      <c r="I131" s="7"/>
+      <c r="J131" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K131" s="98"/>
-      <c r="L131" s="98"/>
-      <c r="M131" s="98"/>
-      <c r="N131" s="98"/>
-      <c r="O131" s="99" t="s">
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5420,59 +5652,59 @@
       <c r="C132" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D132" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="98">
+      <c r="D132" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="7">
         <v>2045</v>
       </c>
-      <c r="F132" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G132" s="98"/>
-      <c r="H132" s="104">
-        <f t="shared" si="8"/>
+      <c r="F132" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" s="7"/>
+      <c r="H132" s="103">
+        <f t="shared" si="11"/>
         <v>2.0031805659687374E-3</v>
       </c>
-      <c r="I132" s="98"/>
-      <c r="J132" s="98" t="s">
+      <c r="I132" s="7"/>
+      <c r="J132" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K132" s="98"/>
-      <c r="L132" s="98"/>
-      <c r="M132" s="98"/>
-      <c r="N132" s="98"/>
-      <c r="O132" s="99" t="s">
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="98" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="133" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C133" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="101">
+      <c r="C133" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="100">
         <v>2050</v>
       </c>
-      <c r="F133" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G133" s="101"/>
-      <c r="H133" s="108">
-        <f t="shared" si="8"/>
+      <c r="F133" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" s="100"/>
+      <c r="H133" s="105">
+        <f t="shared" si="11"/>
         <v>1.9767208533010561E-3</v>
       </c>
-      <c r="I133" s="101"/>
-      <c r="J133" s="101" t="s">
+      <c r="I133" s="100"/>
+      <c r="J133" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="K133" s="101"/>
-      <c r="L133" s="101"/>
-      <c r="M133" s="101"/>
-      <c r="N133" s="101"/>
-      <c r="O133" s="102" t="s">
+      <c r="K133" s="100"/>
+      <c r="L133" s="100"/>
+      <c r="M133" s="100"/>
+      <c r="N133" s="100"/>
+      <c r="O133" s="101" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5490,7 +5722,7 @@
         <v>30</v>
       </c>
       <c r="G134" s="95"/>
-      <c r="H134" s="103">
+      <c r="H134" s="102">
         <f>+G44-H86</f>
         <v>1.1946657494881201E-4</v>
       </c>
@@ -5510,29 +5742,29 @@
       <c r="C135" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D135" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" s="98">
+      <c r="D135" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="7">
         <v>2020</v>
       </c>
-      <c r="F135" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G135" s="98"/>
-      <c r="H135" s="104">
-        <f t="shared" ref="H135:H140" si="9">+G45-H87</f>
+      <c r="F135" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G135" s="7"/>
+      <c r="H135" s="103">
+        <f t="shared" ref="H135:H140" si="12">+G45-H87</f>
         <v>9.2535630032186504E-5</v>
       </c>
-      <c r="I135" s="98"/>
-      <c r="J135" s="98" t="s">
+      <c r="I135" s="7"/>
+      <c r="J135" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K135" s="98"/>
-      <c r="L135" s="98"/>
-      <c r="M135" s="98"/>
-      <c r="N135" s="98"/>
-      <c r="O135" s="99" t="s">
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5540,29 +5772,29 @@
       <c r="C136" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D136" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" s="98">
+      <c r="D136" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="7">
         <v>2025</v>
       </c>
-      <c r="F136" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G136" s="98"/>
-      <c r="H136" s="104">
-        <f t="shared" si="9"/>
+      <c r="F136" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" s="7"/>
+      <c r="H136" s="103">
+        <f t="shared" si="12"/>
         <v>9.5362028371448948E-5</v>
       </c>
-      <c r="I136" s="98"/>
-      <c r="J136" s="98" t="s">
+      <c r="I136" s="7"/>
+      <c r="J136" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K136" s="98"/>
-      <c r="L136" s="98"/>
-      <c r="M136" s="98"/>
-      <c r="N136" s="98"/>
-      <c r="O136" s="99" t="s">
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5570,29 +5802,29 @@
       <c r="C137" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D137" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="98">
+      <c r="D137" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="7">
         <v>2030</v>
       </c>
-      <c r="F137" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G137" s="98"/>
-      <c r="H137" s="104">
-        <f t="shared" si="9"/>
+      <c r="F137" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" s="7"/>
+      <c r="H137" s="103">
+        <f t="shared" si="12"/>
         <v>9.4555417616941969E-5</v>
       </c>
-      <c r="I137" s="98"/>
-      <c r="J137" s="98" t="s">
+      <c r="I137" s="7"/>
+      <c r="J137" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K137" s="98"/>
-      <c r="L137" s="98"/>
-      <c r="M137" s="98"/>
-      <c r="N137" s="98"/>
-      <c r="O137" s="99" t="s">
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5600,29 +5832,29 @@
       <c r="C138" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D138" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" s="98">
+      <c r="D138" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="7">
         <v>2035</v>
       </c>
-      <c r="F138" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G138" s="98"/>
-      <c r="H138" s="104">
-        <f t="shared" si="9"/>
+      <c r="F138" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" s="7"/>
+      <c r="H138" s="103">
+        <f t="shared" si="12"/>
         <v>9.1309114051888298E-5</v>
       </c>
-      <c r="I138" s="98"/>
-      <c r="J138" s="98" t="s">
+      <c r="I138" s="7"/>
+      <c r="J138" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K138" s="98"/>
-      <c r="L138" s="98"/>
-      <c r="M138" s="98"/>
-      <c r="N138" s="98"/>
-      <c r="O138" s="99" t="s">
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5630,29 +5862,29 @@
       <c r="C139" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D139" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" s="98">
+      <c r="D139" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="7">
         <v>2040</v>
       </c>
-      <c r="F139" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G139" s="98"/>
-      <c r="H139" s="104">
-        <f t="shared" si="9"/>
+      <c r="F139" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="103">
+        <f t="shared" si="12"/>
         <v>8.7596123085140068E-5</v>
       </c>
-      <c r="I139" s="98"/>
-      <c r="J139" s="98" t="s">
+      <c r="I139" s="7"/>
+      <c r="J139" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K139" s="98"/>
-      <c r="L139" s="98"/>
-      <c r="M139" s="98"/>
-      <c r="N139" s="98"/>
-      <c r="O139" s="99" t="s">
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5660,59 +5892,59 @@
       <c r="C140" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D140" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" s="98">
+      <c r="D140" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="7">
         <v>2045</v>
       </c>
-      <c r="F140" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G140" s="98"/>
-      <c r="H140" s="104">
-        <f t="shared" si="9"/>
+      <c r="F140" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" s="7"/>
+      <c r="H140" s="103">
+        <f t="shared" si="12"/>
         <v>8.5397511319100202E-5</v>
       </c>
-      <c r="I140" s="98"/>
-      <c r="J140" s="98" t="s">
+      <c r="I140" s="7"/>
+      <c r="J140" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K140" s="98"/>
-      <c r="L140" s="98"/>
-      <c r="M140" s="98"/>
-      <c r="N140" s="98"/>
-      <c r="O140" s="99" t="s">
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="98" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="141" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C141" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="D141" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" s="101">
+      <c r="C141" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="100">
         <v>2050</v>
       </c>
-      <c r="F141" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G141" s="101"/>
-      <c r="H141" s="108">
+      <c r="F141" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" s="100"/>
+      <c r="H141" s="105">
         <f>+G51-H93</f>
         <v>8.3974521541194894E-5</v>
       </c>
-      <c r="I141" s="101"/>
-      <c r="J141" s="101" t="s">
+      <c r="I141" s="100"/>
+      <c r="J141" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="K141" s="101"/>
-      <c r="L141" s="101"/>
-      <c r="M141" s="101"/>
-      <c r="N141" s="101"/>
-      <c r="O141" s="102" t="s">
+      <c r="K141" s="100"/>
+      <c r="L141" s="100"/>
+      <c r="M141" s="100"/>
+      <c r="N141" s="100"/>
+      <c r="O141" s="101" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5730,7 +5962,7 @@
         <v>30</v>
       </c>
       <c r="G142" s="95"/>
-      <c r="H142" s="103">
+      <c r="H142" s="102">
         <f>+H44-H94</f>
         <v>3.9857899708616196E-2</v>
       </c>
@@ -5750,29 +5982,29 @@
       <c r="C143" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D143" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" s="98">
+      <c r="D143" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="7">
         <v>2020</v>
       </c>
-      <c r="F143" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G143" s="98"/>
-      <c r="H143" s="104">
-        <f t="shared" ref="H143:H149" si="10">+H45-H95</f>
+      <c r="F143" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" s="7"/>
+      <c r="H143" s="103">
+        <f t="shared" ref="H143:H149" si="13">+H45-H95</f>
         <v>4.0165939062874467E-2</v>
       </c>
-      <c r="I143" s="98"/>
-      <c r="J143" s="98" t="s">
+      <c r="I143" s="7"/>
+      <c r="J143" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K143" s="98"/>
-      <c r="L143" s="98"/>
-      <c r="M143" s="98"/>
-      <c r="N143" s="98"/>
-      <c r="O143" s="99" t="s">
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5780,29 +6012,29 @@
       <c r="C144" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D144" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="98">
+      <c r="D144" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="7">
         <v>2025</v>
       </c>
-      <c r="F144" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G144" s="98"/>
-      <c r="H144" s="104">
-        <f t="shared" si="10"/>
+      <c r="F144" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" s="7"/>
+      <c r="H144" s="103">
+        <f t="shared" si="13"/>
         <v>4.0285501102027721E-2</v>
       </c>
-      <c r="I144" s="98"/>
-      <c r="J144" s="98" t="s">
+      <c r="I144" s="7"/>
+      <c r="J144" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K144" s="98"/>
-      <c r="L144" s="98"/>
-      <c r="M144" s="98"/>
-      <c r="N144" s="98"/>
-      <c r="O144" s="99" t="s">
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5810,29 +6042,29 @@
       <c r="C145" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D145" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="98">
+      <c r="D145" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="7">
         <v>2030</v>
       </c>
-      <c r="F145" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G145" s="98"/>
-      <c r="H145" s="104">
-        <f t="shared" si="10"/>
+      <c r="F145" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145" s="7"/>
+      <c r="H145" s="103">
+        <f t="shared" si="13"/>
         <v>4.0069982142060423E-2</v>
       </c>
-      <c r="I145" s="98"/>
-      <c r="J145" s="98" t="s">
+      <c r="I145" s="7"/>
+      <c r="J145" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K145" s="98"/>
-      <c r="L145" s="98"/>
-      <c r="M145" s="98"/>
-      <c r="N145" s="98"/>
-      <c r="O145" s="99" t="s">
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5840,29 +6072,29 @@
       <c r="C146" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D146" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" s="98">
+      <c r="D146" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="7">
         <v>2035</v>
       </c>
-      <c r="F146" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G146" s="98"/>
-      <c r="H146" s="104">
-        <f t="shared" si="10"/>
+      <c r="F146" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="7"/>
+      <c r="H146" s="103">
+        <f t="shared" si="13"/>
         <v>3.9026660008961989E-2</v>
       </c>
-      <c r="I146" s="98"/>
-      <c r="J146" s="98" t="s">
+      <c r="I146" s="7"/>
+      <c r="J146" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K146" s="98"/>
-      <c r="L146" s="98"/>
-      <c r="M146" s="98"/>
-      <c r="N146" s="98"/>
-      <c r="O146" s="99" t="s">
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5870,29 +6102,29 @@
       <c r="C147" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D147" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" s="98">
+      <c r="D147" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="7">
         <v>2040</v>
       </c>
-      <c r="F147" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G147" s="98"/>
-      <c r="H147" s="104">
-        <f t="shared" si="10"/>
+      <c r="F147" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" s="7"/>
+      <c r="H147" s="103">
+        <f t="shared" si="13"/>
         <v>3.6910176504274417E-2</v>
       </c>
-      <c r="I147" s="98"/>
-      <c r="J147" s="98" t="s">
+      <c r="I147" s="7"/>
+      <c r="J147" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K147" s="98"/>
-      <c r="L147" s="98"/>
-      <c r="M147" s="98"/>
-      <c r="N147" s="98"/>
-      <c r="O147" s="99" t="s">
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5900,59 +6132,59 @@
       <c r="C148" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D148" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148" s="98">
+      <c r="D148" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="7">
         <v>2045</v>
       </c>
-      <c r="F148" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G148" s="98"/>
-      <c r="H148" s="104">
-        <f t="shared" si="10"/>
+      <c r="F148" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" s="7"/>
+      <c r="H148" s="103">
+        <f t="shared" si="13"/>
         <v>3.3812456560357584E-2</v>
       </c>
-      <c r="I148" s="98"/>
-      <c r="J148" s="98" t="s">
+      <c r="I148" s="7"/>
+      <c r="J148" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K148" s="98"/>
-      <c r="L148" s="98"/>
-      <c r="M148" s="98"/>
-      <c r="N148" s="98"/>
-      <c r="O148" s="99" t="s">
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="98" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="149" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C149" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="D149" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" s="101">
+      <c r="C149" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="100">
         <v>2050</v>
       </c>
-      <c r="F149" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G149" s="101"/>
-      <c r="H149" s="108">
-        <f t="shared" si="10"/>
+      <c r="F149" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" s="100"/>
+      <c r="H149" s="105">
+        <f t="shared" si="13"/>
         <v>3.0550979335348449E-2</v>
       </c>
-      <c r="I149" s="101"/>
-      <c r="J149" s="101" t="s">
+      <c r="I149" s="100"/>
+      <c r="J149" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="K149" s="101"/>
-      <c r="L149" s="101"/>
-      <c r="M149" s="101"/>
-      <c r="N149" s="101"/>
-      <c r="O149" s="102" t="s">
+      <c r="K149" s="100"/>
+      <c r="L149" s="100"/>
+      <c r="M149" s="100"/>
+      <c r="N149" s="100"/>
+      <c r="O149" s="101" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5970,7 +6202,7 @@
         <v>30</v>
       </c>
       <c r="G150" s="95"/>
-      <c r="H150" s="103">
+      <c r="H150" s="102">
         <f>+I44-H102</f>
         <v>2.4944602281420036E-2</v>
       </c>
@@ -5990,29 +6222,29 @@
       <c r="C151" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D151" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" s="98">
+      <c r="D151" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="7">
         <v>2020</v>
       </c>
-      <c r="F151" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G151" s="98"/>
-      <c r="H151" s="104">
-        <f t="shared" ref="H151:H157" si="11">+I45-H103</f>
+      <c r="F151" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G151" s="7"/>
+      <c r="H151" s="103">
+        <f t="shared" ref="H151:H157" si="14">+I45-H103</f>
         <v>2.4969881307596198E-2</v>
       </c>
-      <c r="I151" s="98"/>
-      <c r="J151" s="98" t="s">
+      <c r="I151" s="7"/>
+      <c r="J151" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K151" s="98"/>
-      <c r="L151" s="98"/>
-      <c r="M151" s="98"/>
-      <c r="N151" s="98"/>
-      <c r="O151" s="99" t="s">
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6020,29 +6252,29 @@
       <c r="C152" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D152" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" s="98">
+      <c r="D152" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="7">
         <v>2025</v>
       </c>
-      <c r="F152" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G152" s="98"/>
-      <c r="H152" s="104">
-        <f t="shared" si="11"/>
+      <c r="F152" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" s="7"/>
+      <c r="H152" s="103">
+        <f t="shared" si="14"/>
         <v>2.4590831019415671E-2</v>
       </c>
-      <c r="I152" s="98"/>
-      <c r="J152" s="98" t="s">
+      <c r="I152" s="7"/>
+      <c r="J152" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K152" s="98"/>
-      <c r="L152" s="98"/>
-      <c r="M152" s="98"/>
-      <c r="N152" s="98"/>
-      <c r="O152" s="99" t="s">
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6050,29 +6282,29 @@
       <c r="C153" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D153" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" s="98">
+      <c r="D153" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="7">
         <v>2030</v>
       </c>
-      <c r="F153" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G153" s="98"/>
-      <c r="H153" s="104">
-        <f t="shared" si="11"/>
+      <c r="F153" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G153" s="7"/>
+      <c r="H153" s="103">
+        <f t="shared" si="14"/>
         <v>2.3786592897410919E-2</v>
       </c>
-      <c r="I153" s="98"/>
-      <c r="J153" s="98" t="s">
+      <c r="I153" s="7"/>
+      <c r="J153" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K153" s="98"/>
-      <c r="L153" s="98"/>
-      <c r="M153" s="98"/>
-      <c r="N153" s="98"/>
-      <c r="O153" s="99" t="s">
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6080,29 +6312,29 @@
       <c r="C154" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D154" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" s="98">
+      <c r="D154" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="7">
         <v>2035</v>
       </c>
-      <c r="F154" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G154" s="98"/>
-      <c r="H154" s="104">
-        <f t="shared" si="11"/>
+      <c r="F154" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="103">
+        <f t="shared" si="14"/>
         <v>2.2743204117925409E-2</v>
       </c>
-      <c r="I154" s="98"/>
-      <c r="J154" s="98" t="s">
+      <c r="I154" s="7"/>
+      <c r="J154" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K154" s="98"/>
-      <c r="L154" s="98"/>
-      <c r="M154" s="98"/>
-      <c r="N154" s="98"/>
-      <c r="O154" s="99" t="s">
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6110,29 +6342,29 @@
       <c r="C155" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D155" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="98">
+      <c r="D155" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="7">
         <v>2040</v>
       </c>
-      <c r="F155" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G155" s="98"/>
-      <c r="H155" s="104">
-        <f t="shared" si="11"/>
+      <c r="F155" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" s="7"/>
+      <c r="H155" s="103">
+        <f t="shared" si="14"/>
         <v>2.1535996333336804E-2</v>
       </c>
-      <c r="I155" s="98"/>
-      <c r="J155" s="98" t="s">
+      <c r="I155" s="7"/>
+      <c r="J155" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K155" s="98"/>
-      <c r="L155" s="98"/>
-      <c r="M155" s="98"/>
-      <c r="N155" s="98"/>
-      <c r="O155" s="99" t="s">
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6140,82 +6372,61 @@
       <c r="C156" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D156" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="98">
+      <c r="D156" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="7">
         <v>2045</v>
       </c>
-      <c r="F156" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G156" s="98"/>
-      <c r="H156" s="104">
-        <f t="shared" si="11"/>
+      <c r="F156" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" s="7"/>
+      <c r="H156" s="103">
+        <f t="shared" si="14"/>
         <v>2.0405347918105499E-2</v>
       </c>
-      <c r="I156" s="98"/>
-      <c r="J156" s="98" t="s">
+      <c r="I156" s="7"/>
+      <c r="J156" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K156" s="98"/>
-      <c r="L156" s="98"/>
-      <c r="M156" s="98"/>
-      <c r="N156" s="98"/>
-      <c r="O156" s="99" t="s">
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="98" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="157" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C157" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="D157" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157" s="101">
+      <c r="C157" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="D157" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="100">
         <v>2050</v>
       </c>
-      <c r="F157" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G157" s="101"/>
-      <c r="H157" s="108">
-        <f t="shared" si="11"/>
+      <c r="F157" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" s="100"/>
+      <c r="H157" s="105">
+        <f t="shared" si="14"/>
         <v>1.9366743167810452E-2</v>
       </c>
-      <c r="I157" s="101"/>
-      <c r="J157" s="101" t="s">
+      <c r="I157" s="100"/>
+      <c r="J157" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="K157" s="101"/>
-      <c r="L157" s="101"/>
-      <c r="M157" s="101"/>
-      <c r="N157" s="101"/>
-      <c r="O157" s="102" t="s">
+      <c r="K157" s="100"/>
+      <c r="L157" s="100"/>
+      <c r="M157" s="100"/>
+      <c r="N157" s="100"/>
+      <c r="O157" s="101" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="158" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F158" s="111"/>
-      <c r="G158" s="111"/>
-      <c r="H158" s="111"/>
-      <c r="I158" s="111"/>
-      <c r="J158" s="111"/>
-    </row>
-    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F159" s="111"/>
-      <c r="G159" s="111"/>
-      <c r="H159" s="111"/>
-      <c r="I159" s="111"/>
-      <c r="J159" s="111"/>
-    </row>
-    <row r="160" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F160" s="111"/>
-      <c r="G160" s="111"/>
-      <c r="H160" s="111"/>
-      <c r="I160" s="111"/>
-      <c r="J160" s="111"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
